--- a/backend/web/DS nong dan_VN.xlsx
+++ b/backend/web/DS nong dan_VN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HungChelsea92\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\motobike\backend\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,42 +47,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>VanThiet</author>
-  </authors>
-  <commentList>
-    <comment ref="AQ2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Corbel"/>
-            <family val="2"/>
-          </rPr>
-          <t>VanThiet:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Corbel"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mã số này do công ty đặt cho mỗi nông dân để hệ thống nhận diện trong việc cập nhật thông tin cho mỗi người. Lưu ý khi đặt mã số này là số càng đơn giản, càng ngắn càng tốt vì nó sẽ là user name của nông dân khi truy cập vào hệ thống sau này. Không được trùng giữa người này và người kia. Hàng năm nếu có thay đổi thì nông dân thì ID của những người thay đổi này (người cũ) không được chuyển cho người mới mà phải đặt ID mới, người mới sẽ được nằm tiếp tục ở dưới cùng danh sách, không được chèn ở giữa. Ngoài ra ID này cũng phải thể hiện theo khu vực của công ty đang quản lý, tốt nhất nên chọn theo làng</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -247,21 +213,6 @@
   </si>
   <si>
     <t>john doe</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Indicate ID number for member by company </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(this info use for certification app only)</t>
-    </r>
   </si>
   <si>
     <t>* trường bắt buộc</t>
@@ -431,7 +382,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ ;\-0.00\ "/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,26 +475,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="Corbel"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -673,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -696,32 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -731,7 +636,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -851,36 +756,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -923,6 +798,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 3" xfId="3"/>
@@ -1237,18 +1133,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa1"/>
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19" style="52" customWidth="1"/>
+    <col min="2" max="2" width="19" style="42" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="4" customWidth="1"/>
@@ -1263,9 +1159,9 @@
     <col min="16" max="16" width="14.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="18.85546875" style="2" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="55" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" style="55" customWidth="1"/>
-    <col min="21" max="22" width="16.7109375" style="57" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="45" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="45" customWidth="1"/>
+    <col min="21" max="22" width="16.7109375" style="47" customWidth="1"/>
     <col min="23" max="23" width="13.140625" style="5" customWidth="1"/>
     <col min="24" max="24" width="19.28515625" style="5" customWidth="1"/>
     <col min="25" max="25" width="22.28515625" style="5" customWidth="1"/>
@@ -1282,16 +1178,15 @@
     <col min="37" max="37" width="14.5703125" style="2" customWidth="1"/>
     <col min="38" max="38" width="11.42578125" style="2" customWidth="1"/>
     <col min="39" max="39" width="17.5703125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="15.5703125" style="52" customWidth="1"/>
+    <col min="40" max="40" width="15.5703125" style="42" customWidth="1"/>
     <col min="41" max="42" width="23" style="4" customWidth="1"/>
-    <col min="43" max="43" width="19.42578125" style="4" customWidth="1"/>
-    <col min="44" max="16384" width="8.85546875" style="4"/>
+    <col min="43" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="49" t="s">
-        <v>56</v>
+      <c r="B1" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1309,10 +1204,10 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
@@ -1330,209 +1225,205 @@
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
       <c r="AM1" s="7"/>
-      <c r="AN1" s="59"/>
-    </row>
-    <row r="2" spans="1:43" s="10" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="AN1" s="49"/>
+    </row>
+    <row r="2" spans="1:42" s="10" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="52"/>
+      <c r="P2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+    </row>
+    <row r="3" spans="1:42" s="14" customFormat="1" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="42" t="s">
+      <c r="P3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="47" t="s">
+      <c r="V3" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" s="14" customFormat="1" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="X3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="Y3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="Z3" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="AG3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AK3" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="AL3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AN3" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AN3" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO3" s="13" t="s">
+      <c r="AP3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AP3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ3" s="44"/>
-    </row>
-    <row r="4" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="41">
         <v>16</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -1545,7 +1436,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>43</v>
@@ -1566,19 +1457,19 @@
       <c r="Q4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="48">
+      <c r="R4" s="38">
         <v>145</v>
       </c>
-      <c r="S4" s="48">
+      <c r="S4" s="38">
         <v>97</v>
       </c>
-      <c r="T4" s="48">
+      <c r="T4" s="38">
         <v>97</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4" s="38">
         <v>0</v>
       </c>
-      <c r="V4" s="58">
+      <c r="V4" s="48">
         <v>0</v>
       </c>
       <c r="W4" s="31"/>
@@ -1616,7 +1507,7 @@
       <c r="AM4" s="22">
         <v>2</v>
       </c>
-      <c r="AN4" s="61">
+      <c r="AN4" s="51">
         <v>2</v>
       </c>
       <c r="AO4" s="37">
@@ -1625,13 +1516,12 @@
       <c r="AP4" s="37">
         <v>0.05</v>
       </c>
-      <c r="AQ4" s="38"/>
-    </row>
-    <row r="5" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="41">
         <v>17</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -1644,7 +1534,7 @@
         <v>37</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>44</v>
@@ -1665,19 +1555,19 @@
       <c r="Q5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="38">
         <v>100</v>
       </c>
-      <c r="S5" s="48">
+      <c r="S5" s="38">
         <v>225</v>
       </c>
-      <c r="T5" s="48">
+      <c r="T5" s="38">
         <v>0</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5" s="38">
         <v>225</v>
       </c>
-      <c r="V5" s="58">
+      <c r="V5" s="48">
         <v>0</v>
       </c>
       <c r="W5" s="31"/>
@@ -1715,7 +1605,7 @@
       <c r="AM5" s="22">
         <v>2</v>
       </c>
-      <c r="AN5" s="61">
+      <c r="AN5" s="51">
         <v>3</v>
       </c>
       <c r="AO5" s="37">
@@ -1724,13 +1614,12 @@
       <c r="AP5" s="37">
         <v>0.9</v>
       </c>
-      <c r="AQ5" s="38"/>
-    </row>
-    <row r="6" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="41">
         <v>18</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -1743,7 +1632,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>45</v>
@@ -1764,19 +1653,19 @@
       <c r="Q6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="38">
         <v>980</v>
       </c>
-      <c r="S6" s="48">
+      <c r="S6" s="38">
         <v>750</v>
       </c>
-      <c r="T6" s="48">
+      <c r="T6" s="38">
         <v>0</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="38">
         <v>0</v>
       </c>
-      <c r="V6" s="58">
+      <c r="V6" s="48">
         <v>0</v>
       </c>
       <c r="W6" s="31"/>
@@ -1814,7 +1703,7 @@
       <c r="AM6" s="22">
         <v>2</v>
       </c>
-      <c r="AN6" s="61">
+      <c r="AN6" s="51">
         <v>3</v>
       </c>
       <c r="AO6" s="37">
@@ -1823,13 +1712,12 @@
       <c r="AP6" s="37">
         <v>0.65</v>
       </c>
-      <c r="AQ6" s="38"/>
-    </row>
-    <row r="7" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="41">
         <v>19</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -1842,7 +1730,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>46</v>
@@ -1863,19 +1751,19 @@
       <c r="Q7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="38">
         <v>392</v>
       </c>
-      <c r="S7" s="48">
+      <c r="S7" s="38">
         <v>300</v>
       </c>
-      <c r="T7" s="48">
+      <c r="T7" s="38">
         <v>0</v>
       </c>
-      <c r="U7" s="48">
+      <c r="U7" s="38">
         <v>0</v>
       </c>
-      <c r="V7" s="58">
+      <c r="V7" s="48">
         <v>0</v>
       </c>
       <c r="W7" s="31"/>
@@ -1913,7 +1801,7 @@
       <c r="AM7" s="22">
         <v>2</v>
       </c>
-      <c r="AN7" s="61">
+      <c r="AN7" s="51">
         <v>4</v>
       </c>
       <c r="AO7" s="37">
@@ -1922,13 +1810,12 @@
       <c r="AP7" s="37">
         <v>1.08</v>
       </c>
-      <c r="AQ7" s="38"/>
-    </row>
-    <row r="8" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="41">
         <v>20</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -1941,7 +1828,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>47</v>
@@ -1962,19 +1849,19 @@
       <c r="Q8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="38">
         <v>196</v>
       </c>
-      <c r="S8" s="48">
+      <c r="S8" s="38">
         <v>150</v>
       </c>
-      <c r="T8" s="48">
+      <c r="T8" s="38">
         <v>0</v>
       </c>
-      <c r="U8" s="48">
+      <c r="U8" s="38">
         <v>0</v>
       </c>
-      <c r="V8" s="58">
+      <c r="V8" s="48">
         <v>0</v>
       </c>
       <c r="W8" s="31"/>
@@ -2012,7 +1899,7 @@
       <c r="AM8" s="22">
         <v>2</v>
       </c>
-      <c r="AN8" s="61">
+      <c r="AN8" s="51">
         <v>2</v>
       </c>
       <c r="AO8" s="37">
@@ -2021,16 +1908,14 @@
       <c r="AP8" s="37">
         <v>1.07</v>
       </c>
-      <c r="AQ8" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:AP8"/>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:V2"/>
-    <mergeCell ref="AQ2:AQ3"/>
     <mergeCell ref="AG2:AK2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="W2:AB2"/>
@@ -2145,7 +2030,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="462" yWindow="620" count="1">
@@ -2219,7 +2103,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2257,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2307,7 +2191,7 @@
         <v>1917</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
